--- a/play/docs/ham_pool.xlsx
+++ b/play/docs/ham_pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="22160" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="22200" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>G3A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+  <si>
+    <t>PEP =&gt; Vp-p, %loss =&gt; dB, 10,11,12,13,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resistors, Transformers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,13,16,18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC's, LCD, Connectors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decibel, PEP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2A (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2B (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2C (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2D (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2E (14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3A (16)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3B (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3C (13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4A (15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4B (15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4C (13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4D (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4E (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5A (13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5B (14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5C (18)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6A (19)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6B (18)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7A (13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7B (14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7C (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8A (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8B (10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8C (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9A (15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9B (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9C (20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9D (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0A (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0B (15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,9,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3, RTTY baud 7-11, 30m=10Mhz, 60m=5MHz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6,13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowF = LSB, 2,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(KN), 8(AR), 11(QRV)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2nd Lowest Freq, 6,8,12 (time is vert)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11 (IF shift), 12,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (SWR -&gt; wattmeter), 11,12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (caps),2,3,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -32,106 +260,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>G5B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G5C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G9A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G9B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G3B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G3C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G4A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G4B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G4C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G4D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G5A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G0B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Frequency privileges</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -188,30 +316,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>G6A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G6B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Interference</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,30 +328,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>G4E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Reactance</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Decibel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resistors</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Resistors in circuits</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>IC's</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Digital circuits</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -336,11 +424,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>G9C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G9D</t>
+    <t>G1A (14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1B (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1C (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1D (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1E (13)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -348,12 +448,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -394,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -406,7 +500,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,412 +840,499 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" customHeight="1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" customHeight="1">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23" customHeight="1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23" customHeight="1">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23" customHeight="1">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23" customHeight="1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23" customHeight="1">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="23" customHeight="1">
+        <v>72</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23" customHeight="1">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="23" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23" customHeight="1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="23" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23" customHeight="1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23" customHeight="1">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23" customHeight="1">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="23" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23" customHeight="1">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="23" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23" customHeight="1">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="23" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23" customHeight="1">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="23" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23" customHeight="1">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="23" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23" customHeight="1">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23" customHeight="1">
+        <v>78</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23" customHeight="1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="23" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23" customHeight="1">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="23" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23" customHeight="1">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23" customHeight="1">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="23" customHeight="1">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="23" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23" customHeight="1">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="23" customHeight="1">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23" customHeight="1">
+        <v>85</v>
+      </c>
+      <c r="D33" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="23" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="23" customHeight="1">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="23" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="23" customHeight="1">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1340,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="74" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="76"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>

--- a/play/docs/ham_pool.xlsx
+++ b/play/docs/ham_pool.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="22200" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="22220" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -22,9 +22,173 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
-  <si>
-    <t>PEP =&gt; Vp-p, %loss =&gt; dB, 10,11,12,13,14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">3,14, germanium=0.3, silicon=0.7, schottky=low cap, ceramic caps=low cost, electrolytic=hi cap low vol, </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,7, 10dB=10x, 1S=6dB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEP = Vrms^2/R, Vrms = 0.707*Vp-p/2, %20 Power loss =&gt; 1 dB, 10,11,12,13,14, PEP = avg Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turns ratio = sqrt(R2/R1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resistors in circuits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital circuits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx and Tx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixing, etc..</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital emission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antenna feeds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic antennas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directional antennas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialized antennas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF safety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ham shack safety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 &amp; 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 &amp; 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power supplies &amp; symbols</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 5, 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 5, 6, 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital operating</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1A (14)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1B (12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1C (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1D (11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1E (13)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd highest Freq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,9,10 - 100W PEP beacons</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2nd Lowest Freq, 6,8,12 (time is vert), below RTTY for PSK31 @ 2m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,14, xray=8min, k=short, a=long, charged particles=20-40 hrs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, F2 hop = 2500 mi, E hop = 1200 mi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(KN=listening for specific station), (AR=end of call), (QRV=rdy to rx)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,11 (IF shift), 12,14, plate current = dip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (SWR -&gt; directional wattmeter), 11,12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (rf/audio i/f=caps),2,3,6,7, arcing, choke</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -32,10 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>9,13,16,18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,10 +360,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,9,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1,3, RTTY baud 7-11, 30m=10Mhz, 60m=5MHz</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,42 +376,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6,7,8,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(KN), 8(AR), 11(QRV)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3,5,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1, 2nd Lowest Freq, 6,8,12 (time is vert)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,11 (IF shift), 12,14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (SWR -&gt; wattmeter), 11,12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (caps),2,3,6,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Issues</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -329,118 +453,6 @@
   </si>
   <si>
     <t>Reactance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resistors in circuits</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital circuits</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rx and Tx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modulation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixing, etc..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital emission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antenna feeds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic antennas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Directional antennas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specialized antennas</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF safety</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ham shack safety</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 &amp; 6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 &amp; 5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power supplies &amp; symbols</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4, 5, 7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 5, 6, 7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital operating</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1A (14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1B (12)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1C (11)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1D (11)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1E (13)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -838,509 +850,616 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="23" customHeight="1">
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" t="s">
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23" customHeight="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="23" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23" customHeight="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23" customHeight="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23" customHeight="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="23" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="23" customHeight="1">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="23" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="23" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="23" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="26" spans="1:5" ht="23" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23" customHeight="1">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="27" spans="1:5" ht="23" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23" customHeight="1">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23" customHeight="1">
-      <c r="A7" t="s">
+    <row r="28" spans="1:5" ht="23" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="23" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="23" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="23" customHeight="1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="23" customHeight="1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="23" customHeight="1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="23" customHeight="1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="23" customHeight="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23" customHeight="1">
-      <c r="A8" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="23" customHeight="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23" customHeight="1">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23" customHeight="1">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23" customHeight="1">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23" customHeight="1">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="23" customHeight="1">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23" customHeight="1">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23" customHeight="1">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="23" customHeight="1">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23" customHeight="1">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="74" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/play/docs/ham_pool.xlsx
+++ b/play/docs/ham_pool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="22220" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="22300" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
-    <t xml:space="preserve">3,14, germanium=0.3, silicon=0.7, schottky=low cap, ceramic caps=low cost, electrolytic=hi cap low vol, </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,7, 10dB=10x, 1S=6dB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PEP = Vrms^2/R, Vrms = 0.707*Vp-p/2, %20 Power loss =&gt; 1 dB, 10,11,12,13,14, PEP = avg Power</t>
+    <t>vertical stack HORZ/POLAR YAGI =&gt; narrow main ELEV lobe, multiband = poor harmonic rejection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see notes, PACTOR B/W = 2300 Hz, BW Calc(mod freq, deviation) = 2 x (mod freq + deviation), Freq Deviation 5 kHz FM = 5/12 = 416 Hz, Match B/W = best SNR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>units of RF feed line = dB/100 ft, T/L loss =&gt; SWR artificially LOW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JT9 = low signal strength, PSK31 = Varicode, Baudot = 5 bits, NAK = ARQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see notes, ground plane antennas: slope down=impedance up, yagi = low impedance, see notes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 amp = 12 AWG, 15 amp = 14 AWG, install genny well ventilated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10dB=10x, 1S=6dB, LSB = C F -LSB, USB = CF + USB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto control RTTY = specified segments, auto outside segments - initiator local/remote control</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Lowest Freq, (time is vert), below RTTY for PSK31 @ 2m, AFSK: RTTY=LSB, Digital=USB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IF shift), plate current = dip, audio I/F w/RF (all above)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(rf/audio i/f=caps), arcing, choke, ground loop = hum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmt pwr @ 10MHz = 200W, max BW @ 60m = 2.8kHz, see RTTY bauds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see notes, dBi = dBd + 2.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSK = digital into carrier, ALC =&gt; TX (voice)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF=PL259, SMA=threaded</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinewave osc = filter+opamp, classA=low dist, classC=hi eff, switch P/S=HF+small comps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2rect: V=2x, full rect: V=1x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W PEP beacons</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xray=8min, k=short, a=long, charged particles=20-40 hrs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2 hop = 2500 mi, E hop = 1200 mi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SWR -&gt; directional wattmeter)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEP = Vrms^2/R, Vrms = 0.707*Vp-p/2, %20 Power loss =&gt; 1 dB, PEP = avg Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowF = LSB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see notes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">germanium=0.3, silicon=0.7, schottky=low cap, ceramic caps=low cost, electrolytic=hi cap low vol, </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -156,62 +244,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,9,10 - 100W PEP beacons</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,8,9,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 2nd Lowest Freq, 6,8,12 (time is vert), below RTTY for PSK31 @ 2m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,14, xray=8min, k=short, a=long, charged particles=20-40 hrs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, F2 hop = 2500 mi, E hop = 1200 mi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>(KN=listening for specific station), (AR=end of call), (QRV=rdy to rx)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8,11 (IF shift), 12,14, plate current = dip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (SWR -&gt; directional wattmeter), 11,12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (rf/audio i/f=caps),2,3,6,7, arcing, choke</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Resistors, Transformers</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9,13,16,18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,10,12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7,8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IC's, LCD, Connectors</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,26 +260,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6,7,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>G2A (11)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -357,26 +377,6 @@
   </si>
   <si>
     <t>G0B (15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3, RTTY baud 7-11, 30m=10Mhz, 60m=5MHz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6,13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LowF = LSB, 2,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -512,11 +512,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,26 +853,24 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1">
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -880,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
@@ -888,8 +887,8 @@
       <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
+      <c r="E2" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23" customHeight="1">
@@ -897,24 +896,24 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>33</v>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -922,8 +921,8 @@
       <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>84</v>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1">
@@ -931,16 +930,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
@@ -948,16 +944,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>86</v>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1">
@@ -965,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -973,8 +969,8 @@
       <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>87</v>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
@@ -982,16 +978,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1">
@@ -999,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1007,8 +1000,8 @@
       <c r="D9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1">
@@ -1016,16 +1009,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1">
@@ -1033,16 +1023,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1">
@@ -1050,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -1058,8 +1048,8 @@
       <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1">
@@ -1067,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1075,8 +1065,8 @@
       <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1">
@@ -1084,16 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1">
@@ -1101,16 +1088,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
@@ -1118,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1126,8 +1113,8 @@
       <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>40</v>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="23" customHeight="1">
@@ -1135,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1143,8 +1130,8 @@
       <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23" customHeight="1">
@@ -1152,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -1160,8 +1147,8 @@
       <c r="D18" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>1</v>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23" customHeight="1">
@@ -1169,10 +1156,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -1183,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1197,16 +1184,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="23" customHeight="1">
@@ -1214,16 +1201,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="23" customHeight="1">
@@ -1231,16 +1218,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="23" customHeight="1">
@@ -1248,16 +1235,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="23" customHeight="1">
@@ -1265,16 +1252,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="23" customHeight="1">
@@ -1282,33 +1269,33 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="23" customHeight="1">
@@ -1316,33 +1303,33 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="23" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="26">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="23" customHeight="1">
@@ -1350,16 +1337,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="23" customHeight="1">
@@ -1367,16 +1354,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="23" customHeight="1">
@@ -1384,16 +1371,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="23" customHeight="1">
@@ -1401,16 +1388,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1">
         <v>7</v>
       </c>
       <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E33" s="6">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="23" customHeight="1">
@@ -1418,13 +1405,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="23" customHeight="1">
@@ -1432,13 +1422,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="23" customHeight="1">
@@ -1446,16 +1436,20 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
